--- a/7rmart/src/test/resources/TestData.xlsx
+++ b/7rmart/src/test/resources/TestData.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="20490" windowHeight="7620" firstSheet="2" activeTab="3"/>
+    <workbookView windowWidth="20490" windowHeight="7620" firstSheet="1" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="LoginPage" sheetId="1" r:id="rId1"/>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="18">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="17">
   <si>
     <t>Username</t>
   </si>
@@ -74,9 +74,6 @@
   </si>
   <si>
     <t>12 B, Skyline, Kakkanad, Kochi</t>
-  </si>
-  <si>
-    <t>1 hour</t>
   </si>
   <si>
     <t>Rs. 100</t>
@@ -1381,7 +1378,7 @@
   <dimension ref="A1:E2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B7" sqref="B7"/>
+      <selection activeCell="E6" sqref="E6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="15" outlineLevelRow="1" outlineLevelCol="4"/>
@@ -1420,11 +1417,11 @@
       <c r="C2" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="D2" s="4" t="s">
+      <c r="D2" s="4">
+        <v>42.5</v>
+      </c>
+      <c r="E2" s="4" t="s">
         <v>14</v>
-      </c>
-      <c r="E2" s="4" t="s">
-        <v>15</v>
       </c>
     </row>
   </sheetData>
@@ -1452,12 +1449,12 @@
   <sheetData>
     <row r="1" spans="1:1">
       <c r="A1" s="1" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="2" spans="1:1">
       <c r="A2" s="2" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
   </sheetData>

--- a/7rmart/src/test/resources/TestData.xlsx
+++ b/7rmart/src/test/resources/TestData.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="20490" windowHeight="7620" firstSheet="1" activeTab="3"/>
+    <workbookView windowWidth="20490" windowHeight="7620" firstSheet="3" activeTab="7"/>
   </bookViews>
   <sheets>
     <sheet name="LoginPage" sheetId="1" r:id="rId1"/>
@@ -13,6 +13,8 @@
     <sheet name="ManageContactPage" sheetId="4" r:id="rId4"/>
     <sheet name="ManageNewsPage" sheetId="5" r:id="rId5"/>
     <sheet name="ManageSubCategoryPage" sheetId="6" r:id="rId6"/>
+    <sheet name="ManageCategoryPage" sheetId="7" r:id="rId7"/>
+    <sheet name="FooterTextPage" sheetId="8" r:id="rId8"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -32,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="17">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="24">
   <si>
     <t>Username</t>
   </si>
@@ -83,6 +85,27 @@
   </si>
   <si>
     <t>No New News</t>
+  </si>
+  <si>
+    <t>Sub Category</t>
+  </si>
+  <si>
+    <t>Fridge</t>
+  </si>
+  <si>
+    <t>Category name</t>
+  </si>
+  <si>
+    <t>Helmets</t>
+  </si>
+  <si>
+    <t>Phone</t>
+  </si>
+  <si>
+    <t>Arsenal</t>
+  </si>
+  <si>
+    <t>arsenal@epl.com</t>
   </si>
 </sst>
 </file>
@@ -727,7 +750,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -736,6 +759,18 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="6" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1295,42 +1330,42 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:2">
-      <c r="A1" s="6" t="s">
+      <c r="A1" s="10" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="6" t="s">
+      <c r="B1" s="10" t="s">
         <v>1</v>
       </c>
     </row>
     <row r="2" spans="1:2">
-      <c r="A2" s="2" t="s">
+      <c r="A2" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="B2" s="2" t="s">
+      <c r="B2" s="5" t="s">
         <v>2</v>
       </c>
     </row>
     <row r="3" spans="1:2">
-      <c r="A3" s="2" t="s">
+      <c r="A3" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="B3" s="2" t="s">
+      <c r="B3" s="5" t="s">
         <v>2</v>
       </c>
     </row>
     <row r="4" spans="1:2">
-      <c r="A4" s="2" t="s">
+      <c r="A4" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="B4" s="2" t="s">
+      <c r="B4" s="5" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="5" spans="1:2">
-      <c r="A5" s="2" t="s">
+      <c r="A5" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="B5" s="2" t="s">
+      <c r="B5" s="5" t="s">
         <v>6</v>
       </c>
     </row>
@@ -1377,7 +1412,7 @@
   <sheetPr/>
   <dimension ref="A1:E2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="E6" sqref="E6"/>
     </sheetView>
   </sheetViews>
@@ -1391,36 +1426,36 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:5">
-      <c r="A1" s="3" t="s">
+      <c r="A1" s="7" t="s">
         <v>7</v>
       </c>
-      <c r="B1" s="3" t="s">
+      <c r="B1" s="7" t="s">
         <v>8</v>
       </c>
-      <c r="C1" s="3" t="s">
+      <c r="C1" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="D1" s="3" t="s">
+      <c r="D1" s="7" t="s">
         <v>10</v>
       </c>
-      <c r="E1" s="3" t="s">
+      <c r="E1" s="7" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="2" spans="1:5">
-      <c r="A2" s="4">
+      <c r="A2" s="8">
         <v>8754421567</v>
       </c>
-      <c r="B2" s="5" t="s">
+      <c r="B2" s="9" t="s">
         <v>12</v>
       </c>
-      <c r="C2" s="4" t="s">
+      <c r="C2" s="8" t="s">
         <v>13</v>
       </c>
-      <c r="D2" s="4">
+      <c r="D2" s="8">
         <v>42.5</v>
       </c>
-      <c r="E2" s="4" t="s">
+      <c r="E2" s="8" t="s">
         <v>14</v>
       </c>
     </row>
@@ -1448,12 +1483,12 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:1">
-      <c r="A1" s="1" t="s">
+      <c r="A1" s="6" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="2" spans="1:1">
-      <c r="A2" s="2" t="s">
+      <c r="A2" s="5" t="s">
         <v>16</v>
       </c>
     </row>
@@ -1466,14 +1501,105 @@
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1"/>
+  <dimension ref="A1:A2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="K12" sqref="K12"/>
+      <selection activeCell="D13" sqref="D13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="15"/>
-  <sheetData/>
+  <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="15" outlineLevelRow="1"/>
+  <cols>
+    <col min="1" max="1" width="13.5714285714286" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:1">
+      <c r="A1" s="4" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1">
+      <c r="A2" s="5" t="s">
+        <v>18</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <headerFooter/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1:A2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D13" sqref="D13"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="15" outlineLevelRow="1"/>
+  <cols>
+    <col min="1" max="1" width="15.4285714285714" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:1">
+      <c r="A1" s="4" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1">
+      <c r="A2" s="5" t="s">
+        <v>20</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <headerFooter/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1:C2"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E9" sqref="E9"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="15" outlineLevelRow="1" outlineLevelCol="2"/>
+  <cols>
+    <col min="1" max="1" width="8.71428571428571" customWidth="1"/>
+    <col min="2" max="2" width="17.8571428571429" customWidth="1"/>
+    <col min="3" max="3" width="11.7142857142857" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3">
+      <c r="A1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3">
+      <c r="A2" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="B2" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="C2" s="2">
+        <v>9965124785</v>
+      </c>
+    </row>
+  </sheetData>
+  <hyperlinks>
+    <hyperlink ref="B2" r:id="rId1" display="arsenal@epl.com"/>
+  </hyperlinks>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <headerFooter/>
 </worksheet>
